--- a/IT002-OOP/it002m22htcl/it002m22htcl1.xlsx
+++ b/IT002-OOP/it002m22htcl/it002m22htcl1.xlsx
@@ -541,7 +541,9 @@
       <c r="D6" t="n">
         <v>116.67</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -558,7 +560,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -577,7 +581,9 @@
       <c r="D8" t="n">
         <v>550</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>200</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -592,7 +598,9 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -609,7 +617,9 @@
       <c r="D10" t="n">
         <v>450</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>700</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -626,7 +636,9 @@
         <v>750</v>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>33.33</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -643,7 +655,9 @@
         <v>800</v>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>66.67</v>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -681,7 +695,9 @@
       <c r="D14" t="n">
         <v>600</v>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -700,7 +716,9 @@
       <c r="D15" t="n">
         <v>664.29</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>500</v>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -719,7 +737,9 @@
       <c r="D16" t="n">
         <v>657.14</v>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>66.67</v>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -738,7 +758,9 @@
       <c r="D17" t="n">
         <v>350</v>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>600</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -757,7 +779,9 @@
       <c r="D18" t="n">
         <v>250</v>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>600</v>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -791,7 +815,9 @@
       <c r="D20" t="n">
         <v>400</v>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>266.67</v>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -825,7 +851,9 @@
       <c r="D22" t="n">
         <v>750</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>700</v>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -844,7 +872,9 @@
       <c r="D23" t="n">
         <v>750</v>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>200</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -863,7 +893,9 @@
       <c r="D24" t="n">
         <v>750</v>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>700</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
     </row>

--- a/IT002-OOP/it002m22htcl/it002m22htcl1.xlsx
+++ b/IT002-OOP/it002m22htcl/it002m22htcl1.xlsx
@@ -544,7 +544,9 @@
       <c r="E6" t="n">
         <v>100</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -584,7 +586,9 @@
       <c r="E8" t="n">
         <v>200</v>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -601,7 +605,9 @@
       <c r="E9" t="n">
         <v>100</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>300</v>
+      </c>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -620,7 +626,9 @@
       <c r="E10" t="n">
         <v>700</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>900</v>
+      </c>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -639,7 +647,9 @@
       <c r="E11" t="n">
         <v>33.33</v>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -677,7 +687,9 @@
         <v>642.86</v>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>500</v>
+      </c>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -719,7 +731,9 @@
       <c r="E15" t="n">
         <v>500</v>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -740,7 +754,9 @@
       <c r="E16" t="n">
         <v>66.67</v>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>500</v>
+      </c>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -761,7 +777,9 @@
       <c r="E17" t="n">
         <v>600</v>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>500</v>
+      </c>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -782,7 +800,9 @@
       <c r="E18" t="n">
         <v>600</v>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>600</v>
+      </c>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -797,7 +817,9 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>550</v>
+      </c>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -818,7 +840,9 @@
       <c r="E20" t="n">
         <v>266.67</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>550</v>
+      </c>
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -854,7 +878,9 @@
       <c r="E22" t="n">
         <v>700</v>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>900</v>
+      </c>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -875,7 +901,9 @@
       <c r="E23" t="n">
         <v>200</v>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>600</v>
+      </c>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -896,7 +924,9 @@
       <c r="E24" t="n">
         <v>700</v>
       </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>900</v>
+      </c>
       <c r="G24" t="inlineStr"/>
     </row>
   </sheetData>
